--- a/FASE 2/OBSERVACIONES/Observaciones_John.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones_John.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="5805" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="5805" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="1.Envio_correo" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="13.Admi.Roles.Puesto" sheetId="15" r:id="rId5"/>
     <sheet name="14.Admi.Info.Auditoria" sheetId="20" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="262">
   <si>
     <t xml:space="preserve">Envío de valores de ensayo y comentarios por correo </t>
   </si>
@@ -265,9 +265,6 @@
   <si>
     <t>Ingresé con "cstiprueba" cree un ícono empresa CPSAA, planta Cementos Pacasmayo, Proceso Clinkerizacion, Equipo Horno 1.
 De ahí cree otro ícono, con las mismas caracteristicas. Cuando intentó modificar el nombre de este último y ponerle "horno 1", el sistema desapareció el ícono.</t>
-  </si>
-  <si>
-    <t>El botón para enviar el correo debe llamarse como está en el BBP, así como, las cajas de texto deben estar proporcionadas, como aparece en el documento.</t>
   </si>
   <si>
     <t>Integración 24.02.12</t>
@@ -2937,6 +2934,20 @@
   <si>
     <t>Validado(Use otra fecha por mi BD hasta Noviembre del 2011)
 La fecha es 2006-10-01  y el producto es  Cemento tipo MS . Cambio el color a ambar y no envia correo porque esta fallando el servidor de cementos pacasamyo desde mi base de datos local.</t>
+  </si>
+  <si>
+    <t>Entré como rnarro e ingresé a la funcionalidad Registro de Muestra Especiales. Pulsé en el botón Registrar. El sistema mostró el formulario de registro e ingresé los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Analisis Quimico por via clásica. Equipo: LFCP. Producto: Arcilla. Fecha de muestra: 2012-04-25. Hora: 00:00. Descripción producto: Arcilla. Codigo de muestra: 001. Codigo de origen: 001. Pulsé en el botón Registrar. Luego pulsé sobre la pestaña Ensayos. Di click en el botón Ensayo. Me aparecen los tipos de ensayo. Escribo los siguientes valores:
+CaO: 37.95. MgO: 0.81. Pulsé en el botón Registrar. Aparece confirmación y luego una ventana emergente. Escribo el correo electronico del solicitante y un comentario. Pulso en el botón Enviar.</t>
+  </si>
+  <si>
+    <t>Integración 25.04.12</t>
+  </si>
+  <si>
+    <t>No he recibido el correo</t>
+  </si>
+  <si>
+    <t>No envía correo. Retirar Alerts</t>
   </si>
 </sst>
 </file>
@@ -3057,7 +3068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3198,6 +3209,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4768,27 +4782,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="4"/>
       <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4797,34 +4814,46 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="78" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="246.75" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="D2" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>260</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4872,7 +4901,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="22" customFormat="1" ht="30">
@@ -5084,7 +5113,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60">
@@ -5513,7 +5542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+    <sheetView topLeftCell="D21" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5544,7 +5573,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>6</v>
@@ -5555,16 +5584,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="14" t="s">
@@ -5576,14 +5605,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="14" t="s">
@@ -5595,14 +5624,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="14" t="s">
@@ -5614,15 +5643,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>8</v>
@@ -5633,16 +5662,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="14" t="s">
@@ -5654,17 +5683,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>8</v>
@@ -5675,15 +5704,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>8</v>
@@ -5694,14 +5723,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="20" t="s">
@@ -5713,15 +5742,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>8</v>
@@ -5732,21 +5761,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45">
@@ -5754,14 +5783,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="20" t="s">
@@ -5776,15 +5805,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>8</v>
@@ -5795,14 +5824,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="20" t="s">
@@ -5814,17 +5843,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>8</v>
@@ -5835,15 +5864,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>8</v>
@@ -5854,15 +5883,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>8</v>
@@ -5873,15 +5902,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>8</v>
@@ -5892,15 +5921,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>8</v>
@@ -5911,15 +5940,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>8</v>
@@ -5930,15 +5959,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>8</v>
@@ -5949,15 +5978,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>8</v>
@@ -5968,14 +5997,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="14" t="s">
@@ -5987,16 +6016,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="20" t="s">
@@ -6011,15 +6040,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>8</v>
@@ -6030,15 +6059,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>8</v>
@@ -6049,15 +6078,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>8</v>
@@ -6068,15 +6097,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>8</v>
@@ -6087,15 +6116,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>8</v>
@@ -6106,16 +6135,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="20" t="s">
@@ -6127,23 +6156,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="105">
@@ -6151,14 +6180,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="20" t="s">
@@ -6170,16 +6199,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="20" t="s">
@@ -6194,17 +6223,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>8</v>
@@ -6215,17 +6244,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>8</v>
@@ -6236,17 +6265,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>8</v>
@@ -6257,17 +6286,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>8</v>
@@ -6278,17 +6307,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>121</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>122</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>8</v>
@@ -6299,13 +6328,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="21"/>
@@ -6313,7 +6342,7 @@
         <v>7</v>
       </c>
       <c r="H39" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="45">
@@ -6321,13 +6350,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="21"/>
@@ -6343,16 +6372,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="E41" s="37" t="s">
         <v>128</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>129</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="20" t="s">
@@ -6419,13 +6448,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="22" customFormat="1" ht="60">
@@ -6433,17 +6462,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>8</v>
@@ -6454,17 +6483,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>8</v>
@@ -6475,17 +6504,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>8</v>
@@ -6496,17 +6525,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>8</v>
@@ -6517,16 +6546,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="20" t="s">
@@ -6541,16 +6570,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="20" t="s">
@@ -6565,17 +6594,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>8</v>
@@ -6586,16 +6615,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="20" t="s">
@@ -6610,19 +6639,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>8</v>
@@ -6636,19 +6665,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>8</v>
@@ -6659,17 +6688,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>8</v>
@@ -6680,17 +6709,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>8</v>
@@ -6701,19 +6730,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>7</v>
@@ -6727,19 +6756,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>7</v>
@@ -6753,17 +6782,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>8</v>
@@ -6774,19 +6803,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>7</v>
@@ -6800,19 +6829,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>7</v>
@@ -6826,23 +6855,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="90">
@@ -6850,23 +6879,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="105">
@@ -6874,23 +6903,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6933,13 +6962,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="75">
@@ -6947,16 +6976,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="20" t="s">
@@ -6971,16 +7000,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
@@ -6995,16 +7024,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="20" t="s">
@@ -7019,16 +7048,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="20" t="s">
@@ -7043,17 +7072,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>8</v>
@@ -7064,17 +7093,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>8</v>
@@ -7085,17 +7114,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>8</v>
@@ -7106,16 +7135,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="20" t="s">
@@ -7127,17 +7156,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>8</v>
@@ -7183,7 +7212,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>6</v>
@@ -7192,17 +7221,17 @@
     <row r="2" spans="1:8" s="22" customFormat="1" ht="90">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>8</v>
@@ -7211,17 +7240,17 @@
     <row r="3" spans="1:8" ht="90">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>8</v>
@@ -7230,19 +7259,19 @@
     <row r="4" spans="1:8" ht="60">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>8</v>
@@ -7250,17 +7279,17 @@
     </row>
     <row r="5" spans="1:8" ht="105">
       <c r="B5" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>8</v>
@@ -7268,17 +7297,17 @@
     </row>
     <row r="6" spans="1:8" ht="105">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>8</v>
@@ -7287,19 +7316,19 @@
     <row r="7" spans="1:8" ht="165">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>228</v>
-      </c>
       <c r="F7" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>7</v>
@@ -7311,19 +7340,19 @@
     <row r="8" spans="1:8" ht="90">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>246</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>247</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>7</v>
@@ -7335,19 +7364,19 @@
     <row r="9" spans="1:8" ht="165">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>231</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>7</v>
@@ -7359,19 +7388,19 @@
     <row r="10" spans="1:8" ht="135">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="42" t="s">
         <v>242</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>243</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>7</v>
@@ -7383,17 +7412,17 @@
     <row r="11" spans="1:8" ht="165">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>8</v>

--- a/FASE 2/OBSERVACIONES/Observaciones_John.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones_John.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="5805" tabRatio="656"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="5805" tabRatio="656" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1.Envio_correo" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="271">
   <si>
     <t xml:space="preserve">Envío de valores de ensayo y comentarios por correo </t>
   </si>
@@ -2948,6 +2948,61 @@
   </si>
   <si>
     <t>No envía correo. Retirar Alerts</t>
+  </si>
+  <si>
+    <t>30.04.12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reemplazar ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingreso con usuario premezclados - opción limite de tiempo</t>
+    </r>
+  </si>
+  <si>
+    <t>Aparece una ventana emergente con un mensaje indicando que el límite de tiempo se ha excedido por lo que no es posible reemplazar el ensayo.</t>
+  </si>
+  <si>
+    <t>Aparecen unos valores nulos. Retirar eso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reemplazar ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingreso con usuario premezclados - Resistencia a Compresión</t>
+    </r>
+  </si>
+  <si>
+    <t>Entré como fgastanaudi@dino.com.pe, en la funcionalidad Reporte Específico Control Diario, escribí los siguientes datos:
+Empresa: DINO. Planta: Premezclados Pacasmayo. Proceso: Almac. Y Despacho de Prefabricados. Fecha: 2006-01-30. Pulsé en el botón Buscar. Luego, pulsé sobre el valor 384 de Resistencia a Compresión 7d en la hora de la muestra 10:00. Pulsé en la opción Reemplazar ensayo. Coloqué la contraseña y pulsé en el botón Aceptar.</t>
+  </si>
+  <si>
+    <t>Tomando como base el caso de prueba anterior y habiendo habilitado el límite de tiempo. Escribí nuevamente los siguientes datos: 
+Empresa: DINO. Planta: Premezclados Pacasmayo. Proceso: Almac. Y Despacho de Prefabricados. Fecha: 2006-01-30. Pulsé en el botón Buscar. Luego, pulsé sobre el valor 384 de Resistencia a Compresión 7d en la hora de la muestra 10:00. Pulsé en la opción Reemplazar ensayo. Coloqué la contraseña y pulsé en el botón Aceptar.</t>
+  </si>
+  <si>
+    <t>Aparece popup pero no se ven visualmente los botones eliminar y cancelar. Por favor corregir para que se pueda ver completa la ventana.</t>
+  </si>
+  <si>
+    <t>Aparece una ventana emergente con los valores de código, área, carga máxima y resistencia.</t>
   </si>
 </sst>
 </file>
@@ -4450,15 +4505,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
+      <xdr:colOff>628649</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>396547</xdr:rowOff>
+      <xdr:colOff>1685924</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>496517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4468,7 +4523,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect l="23599" t="36262" r="26180" b="18530"/>
         <a:stretch>
           <a:fillRect/>
@@ -4476,8 +4531,102 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8472486" y="26412825"/>
-          <a:ext cx="2100264" cy="872797"/>
+          <a:off x="9029699" y="26755725"/>
+          <a:ext cx="1057275" cy="439367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2158026</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect l="38382" t="50153" r="42353" b="24847"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8553450" y="28603575"/>
+          <a:ext cx="2005626" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>942975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2140537</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1781175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect l="13971" t="11963" r="22573" b="33282"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8515350" y="30822900"/>
+          <a:ext cx="2026237" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4784,7 +4933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5540,10 +5689,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5555,10 +5704,11 @@
     <col min="5" max="5" width="34.140625" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" style="22" customWidth="1"/>
     <col min="7" max="7" width="74.5703125" customWidth="1"/>
-    <col min="8" max="8" width="57.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="26" t="s">
         <v>4</v>
@@ -5578,8 +5728,12 @@
       <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="H1" s="10"/>
+      <c r="I1" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5599,8 +5753,10 @@
       <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5618,8 +5774,10 @@
       <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="22" customFormat="1" ht="60">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="22" customFormat="1" ht="60">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5637,8 +5795,10 @@
       <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="30">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" s="22" customFormat="1" ht="30">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5656,8 +5816,10 @@
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="45">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5677,8 +5839,10 @@
       <c r="G6" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="45">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5698,8 +5862,10 @@
       <c r="G7" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5717,8 +5883,10 @@
       <c r="G8" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5736,8 +5904,10 @@
       <c r="G9" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5755,8 +5925,10 @@
       <c r="G10" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="75">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="75">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5777,8 +5949,9 @@
       <c r="H11" s="46" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="45">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5799,8 +5972,9 @@
       <c r="H12" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5818,8 +5992,10 @@
       <c r="G13" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="45">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" s="22" customFormat="1" ht="45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5837,8 +6013,10 @@
       <c r="G14" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="120">
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="120">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5858,8 +6036,10 @@
       <c r="G15" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="45">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5877,8 +6057,10 @@
       <c r="G16" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="45">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5896,8 +6078,10 @@
       <c r="G17" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="60">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="60">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5915,8 +6099,10 @@
       <c r="G18" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="45">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5934,8 +6120,10 @@
       <c r="G19" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="45">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5953,8 +6141,10 @@
       <c r="G20" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="30">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="30">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5972,8 +6162,10 @@
       <c r="G21" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="60">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="60">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5991,8 +6183,10 @@
       <c r="G22" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="105">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="105">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -6010,8 +6204,10 @@
       <c r="G23" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" ht="169.5" customHeight="1">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="169.5" customHeight="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -6034,8 +6230,9 @@
       <c r="H24" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="45">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="45">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -6053,8 +6250,10 @@
       <c r="G25" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="45">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="45">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6072,8 +6271,10 @@
       <c r="G26" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="53.25" customHeight="1">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="53.25" customHeight="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6091,8 +6292,10 @@
       <c r="G27" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6110,8 +6313,10 @@
       <c r="G28" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="45">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="45">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6129,8 +6334,10 @@
       <c r="G29" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="75">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="75">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6150,8 +6357,10 @@
       <c r="G30" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="75">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="75">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6174,8 +6383,9 @@
       <c r="H31" s="46" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="105">
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="105">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6193,8 +6403,10 @@
       <c r="G32" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="45">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="45">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6217,8 +6429,9 @@
       <c r="H33" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="45">
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -6238,8 +6451,10 @@
       <c r="G34" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="60">
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="60">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -6259,8 +6474,10 @@
       <c r="G35" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="45">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="45">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -6280,8 +6497,10 @@
       <c r="G36" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="60">
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="60">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -6301,8 +6520,10 @@
       <c r="G37" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="45">
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="45">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -6322,8 +6543,10 @@
       <c r="G38" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="45">
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -6344,8 +6567,9 @@
       <c r="H39" s="46" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="45">
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -6366,8 +6590,9 @@
       <c r="H40" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="22" customFormat="1" ht="75">
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" s="22" customFormat="1" ht="75">
       <c r="A41" s="34">
         <v>40</v>
       </c>
@@ -6387,24 +6612,58 @@
       <c r="G41" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="10"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" s="22" customFormat="1" ht="130.5" customHeight="1">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="22" customFormat="1" ht="147" customHeight="1">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="20" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
